--- a/final_data_pipeline/output/311613longform.xlsx
+++ b/final_data_pipeline/output/311613longform.xlsx
@@ -3392,7 +3392,7 @@
         <v>109</v>
       </c>
       <c r="AA30">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB30">
         <v>8000</v>
@@ -3481,7 +3481,7 @@
         <v>109</v>
       </c>
       <c r="AA31">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB31">
         <v>8000</v>
@@ -3570,7 +3570,7 @@
         <v>109</v>
       </c>
       <c r="AA32">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB32">
         <v>8000</v>
@@ -3659,7 +3659,7 @@
         <v>109</v>
       </c>
       <c r="AA33">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB33">
         <v>8000</v>
@@ -3748,7 +3748,7 @@
         <v>109</v>
       </c>
       <c r="AA34">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="AB34">
         <v>8000</v>
@@ -3837,7 +3837,7 @@
         <v>109</v>
       </c>
       <c r="AA35">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="AB35">
         <v>8000</v>
@@ -3926,7 +3926,7 @@
         <v>109</v>
       </c>
       <c r="AA36">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="AB36">
         <v>8000</v>
@@ -4015,7 +4015,7 @@
         <v>109</v>
       </c>
       <c r="AA37">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="AB37">
         <v>8000</v>
@@ -4104,7 +4104,7 @@
         <v>109</v>
       </c>
       <c r="AA38">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AB38">
         <v>8000</v>
@@ -4193,7 +4193,7 @@
         <v>109</v>
       </c>
       <c r="AA39">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AB39">
         <v>8000</v>
@@ -4282,7 +4282,7 @@
         <v>109</v>
       </c>
       <c r="AA40">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AB40">
         <v>8000</v>
@@ -4371,7 +4371,7 @@
         <v>109</v>
       </c>
       <c r="AA41">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AB41">
         <v>8000</v>
@@ -4460,7 +4460,7 @@
         <v>109</v>
       </c>
       <c r="AA42">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB42">
         <v>8000</v>
@@ -4549,7 +4549,7 @@
         <v>109</v>
       </c>
       <c r="AA43">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB43">
         <v>8000</v>
@@ -4638,7 +4638,7 @@
         <v>109</v>
       </c>
       <c r="AA44">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB44">
         <v>8000</v>
@@ -4727,7 +4727,7 @@
         <v>109</v>
       </c>
       <c r="AA45">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB45">
         <v>8000</v>
@@ -4816,7 +4816,7 @@
         <v>109</v>
       </c>
       <c r="AA46">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB46">
         <v>8000</v>
@@ -4905,7 +4905,7 @@
         <v>109</v>
       </c>
       <c r="AA47">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB47">
         <v>8000</v>
@@ -4994,7 +4994,7 @@
         <v>109</v>
       </c>
       <c r="AA48">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB48">
         <v>8000</v>
@@ -5083,7 +5083,7 @@
         <v>109</v>
       </c>
       <c r="AA49">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB49">
         <v>8000</v>
@@ -5172,7 +5172,7 @@
         <v>109</v>
       </c>
       <c r="AA50">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB50">
         <v>8000</v>
@@ -5261,7 +5261,7 @@
         <v>109</v>
       </c>
       <c r="AA51">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB51">
         <v>8000</v>
@@ -5350,7 +5350,7 @@
         <v>109</v>
       </c>
       <c r="AA52">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB52">
         <v>8000</v>
@@ -5439,7 +5439,7 @@
         <v>109</v>
       </c>
       <c r="AA53">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB53">
         <v>8000</v>
@@ -5528,7 +5528,7 @@
         <v>109</v>
       </c>
       <c r="AA54">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB54">
         <v>8000</v>
@@ -5617,7 +5617,7 @@
         <v>109</v>
       </c>
       <c r="AA55">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB55">
         <v>8000</v>
@@ -5706,7 +5706,7 @@
         <v>109</v>
       </c>
       <c r="AA56">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB56">
         <v>8000</v>
@@ -5795,7 +5795,7 @@
         <v>109</v>
       </c>
       <c r="AA57">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB57">
         <v>8000</v>
@@ -5884,7 +5884,7 @@
         <v>109</v>
       </c>
       <c r="AA58">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="AB58">
         <v>8000</v>
@@ -5973,7 +5973,7 @@
         <v>109</v>
       </c>
       <c r="AA59">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="AB59">
         <v>8000</v>
@@ -6062,7 +6062,7 @@
         <v>109</v>
       </c>
       <c r="AA60">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="AB60">
         <v>8000</v>
@@ -6151,7 +6151,7 @@
         <v>109</v>
       </c>
       <c r="AA61">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="AB61">
         <v>8000</v>
@@ -8732,7 +8732,7 @@
         <v>109</v>
       </c>
       <c r="AA90">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB90">
         <v>8000</v>
@@ -8821,7 +8821,7 @@
         <v>109</v>
       </c>
       <c r="AA91">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB91">
         <v>8000</v>
@@ -8910,7 +8910,7 @@
         <v>109</v>
       </c>
       <c r="AA92">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB92">
         <v>8000</v>
@@ -8999,7 +8999,7 @@
         <v>109</v>
       </c>
       <c r="AA93">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB93">
         <v>8000</v>
@@ -9088,7 +9088,7 @@
         <v>109</v>
       </c>
       <c r="AA94">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB94">
         <v>8000</v>
@@ -9177,7 +9177,7 @@
         <v>109</v>
       </c>
       <c r="AA95">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB95">
         <v>8000</v>
@@ -9266,7 +9266,7 @@
         <v>109</v>
       </c>
       <c r="AA96">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB96">
         <v>8000</v>
@@ -9355,7 +9355,7 @@
         <v>109</v>
       </c>
       <c r="AA97">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB97">
         <v>8000</v>
@@ -9444,7 +9444,7 @@
         <v>109</v>
       </c>
       <c r="AA98">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB98">
         <v>8000</v>
@@ -9533,7 +9533,7 @@
         <v>109</v>
       </c>
       <c r="AA99">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB99">
         <v>8000</v>
@@ -9622,7 +9622,7 @@
         <v>109</v>
       </c>
       <c r="AA100">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB100">
         <v>8000</v>
@@ -9711,7 +9711,7 @@
         <v>109</v>
       </c>
       <c r="AA101">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB101">
         <v>8000</v>
@@ -9800,7 +9800,7 @@
         <v>109</v>
       </c>
       <c r="AA102">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB102">
         <v>8000</v>
@@ -9889,7 +9889,7 @@
         <v>109</v>
       </c>
       <c r="AA103">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB103">
         <v>8000</v>
@@ -9978,7 +9978,7 @@
         <v>109</v>
       </c>
       <c r="AA104">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB104">
         <v>8000</v>
@@ -10067,7 +10067,7 @@
         <v>109</v>
       </c>
       <c r="AA105">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AB105">
         <v>8000</v>
@@ -10512,7 +10512,7 @@
         <v>109</v>
       </c>
       <c r="AA110">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB110">
         <v>8000</v>
@@ -10601,7 +10601,7 @@
         <v>109</v>
       </c>
       <c r="AA111">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB111">
         <v>8000</v>
@@ -10690,7 +10690,7 @@
         <v>109</v>
       </c>
       <c r="AA112">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB112">
         <v>8000</v>
@@ -10779,7 +10779,7 @@
         <v>109</v>
       </c>
       <c r="AA113">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB113">
         <v>8000</v>
@@ -10868,7 +10868,7 @@
         <v>109</v>
       </c>
       <c r="AA114">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB114">
         <v>8000</v>
@@ -10957,7 +10957,7 @@
         <v>109</v>
       </c>
       <c r="AA115">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB115">
         <v>8000</v>
@@ -11046,7 +11046,7 @@
         <v>109</v>
       </c>
       <c r="AA116">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB116">
         <v>8000</v>
@@ -11135,7 +11135,7 @@
         <v>109</v>
       </c>
       <c r="AA117">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB117">
         <v>8000</v>
@@ -11224,7 +11224,7 @@
         <v>109</v>
       </c>
       <c r="AA118">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB118">
         <v>8000</v>
@@ -11313,7 +11313,7 @@
         <v>109</v>
       </c>
       <c r="AA119">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB119">
         <v>8000</v>
@@ -11402,7 +11402,7 @@
         <v>109</v>
       </c>
       <c r="AA120">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB120">
         <v>8000</v>
@@ -11491,7 +11491,7 @@
         <v>109</v>
       </c>
       <c r="AA121">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB121">
         <v>8000</v>
@@ -13360,7 +13360,7 @@
         <v>109</v>
       </c>
       <c r="AA142">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AB142">
         <v>8000</v>
@@ -13449,7 +13449,7 @@
         <v>109</v>
       </c>
       <c r="AA143">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AB143">
         <v>8000</v>
@@ -13538,7 +13538,7 @@
         <v>109</v>
       </c>
       <c r="AA144">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AB144">
         <v>8000</v>
@@ -13627,7 +13627,7 @@
         <v>109</v>
       </c>
       <c r="AA145">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AB145">
         <v>8000</v>
@@ -13716,7 +13716,7 @@
         <v>109</v>
       </c>
       <c r="AA146">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AB146">
         <v>8000</v>
@@ -13805,7 +13805,7 @@
         <v>109</v>
       </c>
       <c r="AA147">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AB147">
         <v>8000</v>
@@ -13894,7 +13894,7 @@
         <v>109</v>
       </c>
       <c r="AA148">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AB148">
         <v>8000</v>
@@ -13983,7 +13983,7 @@
         <v>109</v>
       </c>
       <c r="AA149">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AB149">
         <v>8000</v>
@@ -14072,7 +14072,7 @@
         <v>109</v>
       </c>
       <c r="AA150">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AB150">
         <v>8000</v>
@@ -14161,7 +14161,7 @@
         <v>109</v>
       </c>
       <c r="AA151">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AB151">
         <v>8000</v>
@@ -14250,7 +14250,7 @@
         <v>109</v>
       </c>
       <c r="AA152">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AB152">
         <v>8000</v>
@@ -14339,7 +14339,7 @@
         <v>109</v>
       </c>
       <c r="AA153">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AB153">
         <v>8000</v>
@@ -14428,7 +14428,7 @@
         <v>109</v>
       </c>
       <c r="AA154">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AB154">
         <v>8000</v>
@@ -14517,7 +14517,7 @@
         <v>109</v>
       </c>
       <c r="AA155">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AB155">
         <v>8000</v>
@@ -14606,7 +14606,7 @@
         <v>109</v>
       </c>
       <c r="AA156">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AB156">
         <v>8000</v>
@@ -14695,7 +14695,7 @@
         <v>109</v>
       </c>
       <c r="AA157">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AB157">
         <v>8000</v>
@@ -14784,7 +14784,7 @@
         <v>109</v>
       </c>
       <c r="AA158">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="AB158">
         <v>8000</v>
@@ -14873,7 +14873,7 @@
         <v>109</v>
       </c>
       <c r="AA159">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="AB159">
         <v>8000</v>
@@ -14962,7 +14962,7 @@
         <v>109</v>
       </c>
       <c r="AA160">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="AB160">
         <v>8000</v>
@@ -15051,7 +15051,7 @@
         <v>109</v>
       </c>
       <c r="AA161">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="AB161">
         <v>8000</v>
@@ -15140,7 +15140,7 @@
         <v>109</v>
       </c>
       <c r="AA162">
-        <v>10</v>
+        <v>-3.847222222222223</v>
       </c>
       <c r="AB162">
         <v>8000</v>
@@ -15229,7 +15229,7 @@
         <v>109</v>
       </c>
       <c r="AA163">
-        <v>10</v>
+        <v>-3.847222222222223</v>
       </c>
       <c r="AB163">
         <v>8000</v>
@@ -15318,7 +15318,7 @@
         <v>109</v>
       </c>
       <c r="AA164">
-        <v>10</v>
+        <v>-3.847222222222223</v>
       </c>
       <c r="AB164">
         <v>8000</v>
@@ -15407,7 +15407,7 @@
         <v>109</v>
       </c>
       <c r="AA165">
-        <v>10</v>
+        <v>-3.847222222222223</v>
       </c>
       <c r="AB165">
         <v>8000</v>
@@ -15496,7 +15496,7 @@
         <v>109</v>
       </c>
       <c r="AA166">
-        <v>10</v>
+        <v>-3.847222222222223</v>
       </c>
       <c r="AB166">
         <v>8000</v>
@@ -15585,7 +15585,7 @@
         <v>109</v>
       </c>
       <c r="AA167">
-        <v>10</v>
+        <v>-3.847222222222223</v>
       </c>
       <c r="AB167">
         <v>8000</v>
@@ -15674,7 +15674,7 @@
         <v>109</v>
       </c>
       <c r="AA168">
-        <v>10</v>
+        <v>-3.847222222222223</v>
       </c>
       <c r="AB168">
         <v>8000</v>
@@ -15763,7 +15763,7 @@
         <v>109</v>
       </c>
       <c r="AA169">
-        <v>10</v>
+        <v>-3.847222222222223</v>
       </c>
       <c r="AB169">
         <v>8000</v>
@@ -16564,7 +16564,7 @@
         <v>109</v>
       </c>
       <c r="AA178">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AB178">
         <v>8000</v>
@@ -16653,7 +16653,7 @@
         <v>109</v>
       </c>
       <c r="AA179">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AB179">
         <v>8000</v>
@@ -16742,7 +16742,7 @@
         <v>109</v>
       </c>
       <c r="AA180">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AB180">
         <v>8000</v>
@@ -16831,7 +16831,7 @@
         <v>109</v>
       </c>
       <c r="AA181">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AB181">
         <v>8000</v>
@@ -16920,7 +16920,7 @@
         <v>109</v>
       </c>
       <c r="AA182">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AB182">
         <v>8000</v>
@@ -17009,7 +17009,7 @@
         <v>109</v>
       </c>
       <c r="AA183">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AB183">
         <v>8000</v>
@@ -17098,7 +17098,7 @@
         <v>109</v>
       </c>
       <c r="AA184">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AB184">
         <v>8000</v>
@@ -17187,7 +17187,7 @@
         <v>109</v>
       </c>
       <c r="AA185">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AB185">
         <v>8000</v>
